--- a/twocents_times.xlsx
+++ b/twocents_times.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\APA-SERVE2\arduino-win\funsa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\APA-SERVE2\arduino-win\twocents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -108,7 +108,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>funsa time for each of 32 cycles</a:t>
+              <a:t>twocents time for each of 32 cycles</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1356,11 +1356,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="411997736"/>
-        <c:axId val="411997344"/>
+        <c:axId val="422833864"/>
+        <c:axId val="422637248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="411997736"/>
+        <c:axId val="422833864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1403,7 +1403,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="411997344"/>
+        <c:crossAx val="422637248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1411,7 +1411,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="411997344"/>
+        <c:axId val="422637248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1462,7 +1462,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="411997736"/>
+        <c:crossAx val="422833864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
